--- a/produits/produits.xlsx
+++ b/produits/produits.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,28 +486,28 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pc dell</t>
+          <t>Huawei768</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PC Dell Intel Core i7-620M - 2.66 GHz / 4Go RAM DDR3 / 250Go HDD / 14.1" WXGA / DVDRW</t>
+          <t>Google Pixel 3gb RAM</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>100000</v>
+        <v>5678</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="F2" t="n">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="G2" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -516,315 +516,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>papa</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>T-shirt</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>T-shirt</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>3500</v>
-      </c>
-      <c r="E3" t="n">
-        <v>20</v>
-      </c>
-      <c r="F3" t="n">
-        <v>19</v>
-      </c>
-      <c r="G3" t="n">
-        <v>29</v>
-      </c>
-      <c r="H3" t="n">
-        <v>28</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>T-shirt</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>papa</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Pc dell558</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Google Pixel 3gb RAM</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>5555</v>
-      </c>
-      <c r="E4" t="n">
-        <v>43</v>
-      </c>
-      <c r="F4" t="n">
-        <v>24</v>
-      </c>
-      <c r="G4" t="n">
-        <v>19</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Ordinateur</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>papa</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>qsdhs</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>ncs;xw</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>5456</v>
-      </c>
-      <c r="E5" t="n">
-        <v>56</v>
-      </c>
-      <c r="F5" t="n">
-        <v>25</v>
-      </c>
-      <c r="G5" t="n">
-        <v>31</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Huawei55</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>PC Dell Intel Core i7-620M - 2.66 GHz / 4Go RAM DDR3 / 250Go HDD / 14.1" WXGA / DVDRW</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>100000</v>
-      </c>
-      <c r="E6" t="n">
-        <v>43</v>
-      </c>
-      <c r="F6" t="n">
-        <v>31</v>
-      </c>
-      <c r="G6" t="n">
-        <v>12</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Smartphone</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>vano</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Pc dell 77</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Je gagne ma vie sur internet grâce au business marketing</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>45000</v>
-      </c>
-      <c r="E7" t="n">
-        <v>56</v>
-      </c>
-      <c r="F7" t="n">
-        <v>48</v>
-      </c>
-      <c r="G7" t="n">
-        <v>8</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Smartphone</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
           <t>Sylvain5678</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Montre</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>montre</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>5500</v>
-      </c>
-      <c r="E8" t="n">
-        <v>50</v>
-      </c>
-      <c r="F8" t="n">
-        <v>33</v>
-      </c>
-      <c r="G8" t="n">
-        <v>17</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>komlan</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Chaussure6</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Je gagne ma vie sur internet grâce au business marketing</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>5000</v>
-      </c>
-      <c r="E9" t="n">
-        <v>50</v>
-      </c>
-      <c r="F9" t="n">
-        <v>50</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>T-shirt</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>mawuko</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Huawei</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Google Pixel 3gb RAM</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>60000</v>
-      </c>
-      <c r="E10" t="n">
-        <v>50</v>
-      </c>
-      <c r="F10" t="n">
-        <v>62</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>12</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>Smartphone</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>dov</t>
         </is>
       </c>
     </row>
